--- a/config_debug/activity_043_khfl_config.xlsx
+++ b/config_debug/activity_043_khfl_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -368,14 +368,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼深海探险当前层数+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="13"/>
@@ -1145,7 +1145,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="14"/>
@@ -1177,7 +1177,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="L4" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="14"/>
@@ -1195,7 +1195,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1209,7 +1209,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="14"/>
@@ -1241,7 +1241,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="14"/>
@@ -1273,7 +1273,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="L7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="14"/>
@@ -1304,7 +1304,7 @@
         <v>68</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>70</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">

--- a/config_debug/activity_043_khfl_config.xlsx
+++ b/config_debug/activity_043_khfl_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>index|索引</t>
   </si>
@@ -375,7 +375,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼深海探险当前层数+3</t>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total|达成条件
+(任务进度条）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1013,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -1192,10 +1201,10 @@
         <v>1000202</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
